--- a/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/005_cam_data.xlsx
+++ b/02_Output/Manual_Count_Timeframe-1_Hour_Intervall/005_cam_data.xlsx
@@ -1,37 +1,81 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Motorcycle (L)</t>
+  </si>
+  <si>
+    <t>PKW (L)</t>
+  </si>
+  <si>
+    <t>Small Transporter (L)</t>
+  </si>
+  <si>
+    <t>Transporter (L)</t>
+  </si>
+  <si>
+    <t>LKW (L)</t>
+  </si>
+  <si>
+    <t>Motorcycle (R)</t>
+  </si>
+  <si>
+    <t>PKW (R)</t>
+  </si>
+  <si>
+    <t>Small Transporter (R)</t>
+  </si>
+  <si>
+    <t>Transporter (R)</t>
+  </si>
+  <si>
+    <t>LKW (R)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +90,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,77 +407,733 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="B1:L1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Timestamp</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Motorcycle (L)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>PKW (L)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Small Transporter (L)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Transporter (L)</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>LKW (L)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Motorcycle (R)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>PKW (R)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Small Transporter (R)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Transporter (R)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>LKW (R)</t>
-        </is>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45393.875</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45393.86805555555</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>62</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>9</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45393.86111111111</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>66</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45393.85416666666</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>53</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>12</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45393.84722222222</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>17</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45393.84027777778</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>69</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45393.70833333334</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>74</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45393.70138888889</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>103</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>15</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45393.69444444445</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>99</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45393.6875</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>72</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45393.68055555555</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>110</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45393.67361111111</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>118</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45393.375</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>112</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>25</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45393.36805555555</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>113</v>
+      </c>
+      <c r="J15">
+        <v>6</v>
+      </c>
+      <c r="K15">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45393.36111111111</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>32</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>90</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>35</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45393.35416666666</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>99</v>
+      </c>
+      <c r="J17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>29</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45393.34722222222</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>107</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>29</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45393.34027777778</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>47</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>136</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>23</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>